--- a/Материалы.xlsx
+++ b/Материалы.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -148,9 +148,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -188,6 +185,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -248,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,7 +283,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,19 +508,19 @@
     <col min="9" max="9" width="13.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -615,25 +615,25 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -687,25 +687,25 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -723,31 +723,31 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>920</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>2</v>
       </c>
       <c r="C24" s="1">
         <v>2000</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <f t="shared" ref="D24:D25" si="1">SUM(C24,-1*A24)</f>
         <v>1080</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>530</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>1</v>
       </c>
       <c r="C25" s="1">
         <v>2000</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <f t="shared" si="1"/>
         <v>1470</v>
       </c>
@@ -759,14 +759,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -805,66 +805,66 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="A35" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="A47" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -903,25 +903,25 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
@@ -942,14 +942,14 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -1010,13 +1010,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1068,21 +1068,21 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
@@ -1093,21 +1093,21 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
@@ -1126,12 +1126,12 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
@@ -1142,21 +1142,21 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
@@ -1175,12 +1175,12 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
@@ -1191,12 +1191,12 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
@@ -1207,21 +1207,21 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
@@ -1240,21 +1240,21 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
@@ -1262,12 +1262,12 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
@@ -1278,21 +1278,21 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
@@ -1320,16 +1320,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A46:E46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A11:E11"/>
@@ -1337,6 +1327,16 @@
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:D67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1344,108 +1344,108 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L130"/>
+  <dimension ref="B1:N130"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="J121" sqref="J121"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="9.140625" style="6"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
-        <v>2000</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E3" s="7">
-        <f>SUM(D3,B3*(-1))</f>
+      <c r="B3" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E28" si="0">SUM(D3,B3*(-1))</f>
         <v>1000</v>
       </c>
-      <c r="I3" s="5">
-        <v>2000</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L3" s="7">
-        <f>SUM(K3,I3*(-1))</f>
+      <c r="I3" s="4">
+        <v>2000</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ref="L3:L34" si="1">SUM(K3,I3*(-1))</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1960</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E4" s="7">
-        <f>SUM(D4,B4*(-1))</f>
+      <c r="D4" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
         <v>1040</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>1960</v>
       </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L4" s="7">
-        <f>SUM(K4,I4*(-1))</f>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1960</v>
       </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E5" s="7">
-        <f>SUM(D5,B5*(-1))</f>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
         <v>1040</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>1960</v>
       </c>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L5" s="7">
-        <f>SUM(K5,I5*(-1))</f>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -1456,11 +1456,11 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E6" s="7">
-        <f>SUM(D6,B6*(-1))</f>
+      <c r="D6" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
         <v>1040</v>
       </c>
       <c r="I6" s="1">
@@ -1469,26 +1469,26 @@
       <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L6" s="7">
-        <f>SUM(K6,I6*(-1))</f>
+      <c r="K6" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1900</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>4</v>
       </c>
-      <c r="D7" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E7" s="7">
-        <f>SUM(D7,B7*(-1))</f>
+      <c r="D7" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
         <v>1100</v>
       </c>
       <c r="I7" s="1">
@@ -1497,26 +1497,26 @@
       <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L7" s="7">
-        <f>SUM(K7,I7*(-1))</f>
+      <c r="K7" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1900</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E8" s="7">
-        <f>SUM(D8,B8*(-1))</f>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
         <v>1100</v>
       </c>
       <c r="I8" s="1">
@@ -1525,26 +1525,26 @@
       <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L8" s="7">
-        <f>SUM(K8,I8*(-1))</f>
+      <c r="K8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>1900</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="D9" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E9" s="7">
-        <f>SUM(D9,B9*(-1))</f>
+      <c r="D9" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
         <v>1100</v>
       </c>
       <c r="I9" s="1">
@@ -1553,26 +1553,26 @@
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L9" s="7">
-        <f>SUM(K9,I9*(-1))</f>
+      <c r="K9" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>1860</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>2</v>
       </c>
-      <c r="D10" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E10" s="7">
-        <f>SUM(D10,B10*(-1))</f>
+      <c r="D10" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
         <v>1140</v>
       </c>
       <c r="I10" s="1">
@@ -1581,11 +1581,11 @@
       <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L10" s="7">
-        <f>SUM(K10,I10*(-1))</f>
+      <c r="K10" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1596,11 +1596,11 @@
       <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E11" s="7">
-        <f>SUM(D11,B11*(-1))</f>
+      <c r="D11" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
         <v>1140</v>
       </c>
       <c r="I11" s="1">
@@ -1609,26 +1609,26 @@
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L11" s="7">
-        <f>SUM(K11,I11*(-1))</f>
+      <c r="K11" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>1850</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>7</v>
       </c>
-      <c r="D12" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E12" s="7">
-        <f>SUM(D12,B12*(-1))</f>
+      <c r="D12" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
         <v>1150</v>
       </c>
       <c r="I12" s="1">
@@ -1637,11 +1637,11 @@
       <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="K12" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L12" s="7">
-        <f>SUM(K12,I12*(-1))</f>
+      <c r="K12" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1652,11 +1652,11 @@
       <c r="C13" s="1">
         <v>4</v>
       </c>
-      <c r="D13" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E13" s="7">
-        <f>SUM(D13,B13*(-1))</f>
+      <c r="D13" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
         <v>1150</v>
       </c>
       <c r="I13" s="1">
@@ -1665,26 +1665,26 @@
       <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L13" s="7">
-        <f>SUM(K13,I13*(-1))</f>
+      <c r="K13" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>1800</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>2</v>
       </c>
-      <c r="D14" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E14" s="7">
-        <f>SUM(D14,B14*(-1))</f>
+      <c r="D14" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="I14" s="1">
@@ -1693,11 +1693,11 @@
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L14" s="7">
-        <f>SUM(K14,I14*(-1))</f>
+      <c r="K14" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1708,11 +1708,11 @@
       <c r="C15" s="1">
         <v>3</v>
       </c>
-      <c r="D15" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E15" s="7">
-        <f>SUM(D15,B15*(-1))</f>
+      <c r="D15" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="I15" s="1">
@@ -1721,11 +1721,11 @@
       <c r="J15" s="1">
         <v>1</v>
       </c>
-      <c r="K15" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L15" s="7">
-        <f>SUM(K15,I15*(-1))</f>
+      <c r="K15" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1736,11 +1736,11 @@
       <c r="C16" s="1">
         <v>4</v>
       </c>
-      <c r="D16" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E16" s="7">
-        <f>SUM(D16,B16*(-1))</f>
+      <c r="D16" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="I16" s="1">
@@ -1749,11 +1749,11 @@
       <c r="J16" s="1">
         <v>1</v>
       </c>
-      <c r="K16" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L16" s="7">
-        <f>SUM(K16,I16*(-1))</f>
+      <c r="K16" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1764,11 +1764,11 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E17" s="7">
-        <f>SUM(D17,B17*(-1))</f>
+      <c r="D17" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="I17" s="1">
@@ -1777,11 +1777,11 @@
       <c r="J17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L17" s="7">
-        <f>SUM(K17,I17*(-1))</f>
+      <c r="K17" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1792,24 +1792,24 @@
       <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E18" s="7">
-        <f>SUM(D18,B18*(-1))</f>
+      <c r="D18" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>1860</v>
       </c>
-      <c r="J18" s="5">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L18" s="7">
-        <f>SUM(K18,I18*(-1))</f>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
     </row>
@@ -1820,52 +1820,52 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E19" s="7">
-        <f>SUM(D19,B19*(-1))</f>
+      <c r="D19" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>1860</v>
       </c>
-      <c r="J19" s="5">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L19" s="7">
-        <f>SUM(K19,I19*(-1))</f>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>1230</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>6</v>
       </c>
-      <c r="D20" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E20" s="7">
-        <f>SUM(D20,B20*(-1))</f>
+      <c r="D20" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
         <v>1770</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>1860</v>
       </c>
-      <c r="J20" s="5">
-        <v>1</v>
-      </c>
-      <c r="K20" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L20" s="7">
-        <f>SUM(K20,I20*(-1))</f>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
     </row>
@@ -1876,108 +1876,108 @@
       <c r="C21" s="1">
         <v>6</v>
       </c>
-      <c r="D21" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E21" s="7">
-        <f>SUM(D21,B21*(-1))</f>
+      <c r="D21" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
         <v>1770</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>1860</v>
       </c>
-      <c r="J21" s="5">
-        <v>1</v>
-      </c>
-      <c r="K21" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L21" s="7">
-        <f>SUM(K21,I21*(-1))</f>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>930</v>
       </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E22" s="7">
-        <f>SUM(D22,B22*(-1))</f>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
         <v>2070</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>1850</v>
       </c>
-      <c r="J22" s="5">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L22" s="7">
-        <f>SUM(K22,I22*(-1))</f>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>930</v>
       </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E23" s="7">
-        <f>SUM(D23,B23*(-1))</f>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
         <v>2070</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <v>1850</v>
       </c>
-      <c r="J23" s="5">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L23" s="7">
-        <f>SUM(K23,I23*(-1))</f>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>920</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>2</v>
       </c>
-      <c r="D24" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E24" s="7">
-        <f>SUM(D24,B24*(-1))</f>
+      <c r="D24" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
         <v>2080</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <v>1850</v>
       </c>
-      <c r="J24" s="5">
-        <v>1</v>
-      </c>
-      <c r="K24" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L24" s="7">
-        <f>SUM(K24,I24*(-1))</f>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
@@ -1988,52 +1988,52 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E25" s="7">
-        <f>SUM(D25,B25*(-1))</f>
+      <c r="D25" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
         <v>2410</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="4">
         <v>1850</v>
       </c>
-      <c r="J25" s="5">
-        <v>1</v>
-      </c>
-      <c r="K25" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L25" s="7">
-        <f>SUM(K25,I25*(-1))</f>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>530</v>
       </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E26" s="7">
-        <f>SUM(D26,B26*(-1))</f>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
         <v>2470</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <v>1850</v>
       </c>
-      <c r="J26" s="5">
-        <v>1</v>
-      </c>
-      <c r="K26" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L26" s="7">
-        <f>SUM(K26,I26*(-1))</f>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
@@ -2044,24 +2044,24 @@
       <c r="C27" s="1">
         <v>3</v>
       </c>
-      <c r="D27" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E27" s="7">
-        <f>SUM(D27,B27*(-1))</f>
+      <c r="D27" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
         <v>2600</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <v>1850</v>
       </c>
-      <c r="J27" s="5">
-        <v>1</v>
-      </c>
-      <c r="K27" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L27" s="7">
-        <f>SUM(K27,I27*(-1))</f>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
@@ -2072,529 +2072,529 @@
       <c r="C28" s="1">
         <v>3</v>
       </c>
-      <c r="D28" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E28" s="7">
-        <f>SUM(D28,B28*(-1))</f>
+      <c r="D28" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
         <v>2630</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="4">
         <v>1850</v>
       </c>
-      <c r="J28" s="5">
-        <v>1</v>
-      </c>
-      <c r="K28" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L28" s="7">
-        <f>SUM(K28,I28*(-1))</f>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <v>1850</v>
       </c>
-      <c r="J29" s="5">
-        <v>1</v>
-      </c>
-      <c r="K29" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L29" s="7">
-        <f>SUM(K29,I29*(-1))</f>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I30" s="5">
+      <c r="I30" s="4">
         <v>1850</v>
       </c>
-      <c r="J30" s="5">
-        <v>1</v>
-      </c>
-      <c r="K30" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L30" s="7">
-        <f>SUM(K30,I30*(-1))</f>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I31" s="5">
+      <c r="I31" s="4">
         <v>1850</v>
       </c>
-      <c r="J31" s="5">
-        <v>1</v>
-      </c>
-      <c r="K31" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L31" s="7">
-        <f>SUM(K31,I31*(-1))</f>
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I32" s="5">
+      <c r="I32" s="4">
         <v>1850</v>
       </c>
-      <c r="J32" s="5">
-        <v>1</v>
-      </c>
-      <c r="K32" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L32" s="7">
-        <f>SUM(K32,I32*(-1))</f>
+      <c r="J32" s="4">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L32" s="6">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
     <row r="33" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I33" s="5">
+      <c r="I33" s="4">
         <v>1800</v>
       </c>
-      <c r="J33" s="5">
-        <v>1</v>
-      </c>
-      <c r="K33" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L33" s="7">
-        <f>SUM(K33,I33*(-1))</f>
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
     <row r="34" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I34" s="5">
+      <c r="I34" s="4">
         <v>1800</v>
       </c>
-      <c r="J34" s="5">
-        <v>1</v>
-      </c>
-      <c r="K34" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L34" s="7">
-        <f>SUM(K34,I34*(-1))</f>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L34" s="6">
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
     <row r="35" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <v>1800</v>
       </c>
-      <c r="J35" s="5">
-        <v>1</v>
-      </c>
-      <c r="K35" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L35" s="7">
-        <f>SUM(K35,I35*(-1))</f>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" ref="L35:L66" si="2">SUM(K35,I35*(-1))</f>
         <v>200</v>
       </c>
     </row>
     <row r="36" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I36" s="5">
+      <c r="I36" s="4">
         <v>1800</v>
       </c>
-      <c r="J36" s="5">
-        <v>1</v>
-      </c>
-      <c r="K36" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L36" s="7">
-        <f>SUM(K36,I36*(-1))</f>
+      <c r="J36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
     <row r="37" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I37" s="5">
+      <c r="I37" s="4">
         <v>1800</v>
       </c>
-      <c r="J37" s="5">
-        <v>1</v>
-      </c>
-      <c r="K37" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L37" s="7">
-        <f>SUM(K37,I37*(-1))</f>
+      <c r="J37" s="4">
+        <v>1</v>
+      </c>
+      <c r="K37" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L37" s="6">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
     <row r="38" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I38" s="10">
+      <c r="I38" s="9">
         <v>1500</v>
       </c>
-      <c r="J38" s="10">
-        <v>1</v>
-      </c>
-      <c r="K38" s="10">
-        <v>3000</v>
-      </c>
-      <c r="L38" s="11">
-        <f>SUM(K38,I38*(-1))</f>
+      <c r="J38" s="9">
+        <v>1</v>
+      </c>
+      <c r="K38" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L38" s="10">
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
     </row>
     <row r="39" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I39" s="10">
+      <c r="I39" s="9">
         <v>1500</v>
       </c>
-      <c r="J39" s="10">
-        <v>1</v>
-      </c>
-      <c r="K39" s="10">
-        <v>3000</v>
-      </c>
-      <c r="L39" s="11">
-        <f>SUM(K39,I39*(-1))</f>
+      <c r="J39" s="9">
+        <v>1</v>
+      </c>
+      <c r="K39" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L39" s="10">
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
     </row>
     <row r="40" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I40" s="10">
+      <c r="I40" s="9">
         <v>1500</v>
       </c>
-      <c r="J40" s="10">
-        <v>1</v>
-      </c>
-      <c r="K40" s="10">
-        <v>3000</v>
-      </c>
-      <c r="L40" s="11">
-        <f>SUM(K40,I40*(-1))</f>
+      <c r="J40" s="9">
+        <v>1</v>
+      </c>
+      <c r="K40" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L40" s="10">
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
     </row>
     <row r="41" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I41" s="10">
+      <c r="I41" s="9">
         <v>1500</v>
       </c>
-      <c r="J41" s="10">
-        <v>1</v>
-      </c>
-      <c r="K41" s="10">
-        <v>3000</v>
-      </c>
-      <c r="L41" s="11">
-        <f>SUM(K41,I41*(-1))</f>
+      <c r="J41" s="9">
+        <v>1</v>
+      </c>
+      <c r="K41" s="9">
+        <v>3000</v>
+      </c>
+      <c r="L41" s="10">
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
     </row>
     <row r="42" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I42" s="10">
+      <c r="I42" s="9">
         <v>1500</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="9">
         <v>0</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="9">
         <f>SUM(L38)</f>
         <v>1500</v>
       </c>
-      <c r="L42" s="11">
-        <f>SUM(K42,I42*(-1))</f>
+      <c r="L42" s="10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I43" s="10">
+      <c r="I43" s="9">
         <v>1500</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="9">
         <v>0</v>
       </c>
-      <c r="K43" s="10">
-        <f t="shared" ref="K43:K45" si="0">SUM(L39)</f>
+      <c r="K43" s="9">
+        <f t="shared" ref="K43:K45" si="3">SUM(L39)</f>
         <v>1500</v>
       </c>
-      <c r="L43" s="11">
-        <f>SUM(K43,I43*(-1))</f>
+      <c r="L43" s="10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I44" s="10">
+      <c r="I44" s="9">
         <v>1500</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="9">
         <v>0</v>
       </c>
-      <c r="K44" s="10">
-        <f t="shared" si="0"/>
+      <c r="K44" s="9">
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="L44" s="11">
-        <f>SUM(K44,I44*(-1))</f>
+      <c r="L44" s="10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I45" s="10">
+      <c r="I45" s="9">
         <v>1500</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="9">
         <v>0</v>
       </c>
-      <c r="K45" s="10">
-        <f t="shared" si="0"/>
+      <c r="K45" s="9">
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="L45" s="11">
-        <f>SUM(K45,I45*(-1))</f>
+      <c r="L45" s="10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I46" s="8">
+      <c r="I46" s="7">
         <v>1230</v>
       </c>
-      <c r="J46" s="8">
-        <v>1</v>
-      </c>
-      <c r="K46" s="8">
-        <v>3000</v>
-      </c>
-      <c r="L46" s="9">
-        <f>SUM(K46,I46*(-1))</f>
+      <c r="J46" s="7">
+        <v>1</v>
+      </c>
+      <c r="K46" s="7">
+        <v>3000</v>
+      </c>
+      <c r="L46" s="8">
+        <f t="shared" si="2"/>
         <v>1770</v>
       </c>
     </row>
     <row r="47" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I47" s="8">
+      <c r="I47" s="7">
         <v>1230</v>
       </c>
-      <c r="J47" s="8">
-        <v>1</v>
-      </c>
-      <c r="K47" s="8">
-        <v>3000</v>
-      </c>
-      <c r="L47" s="9">
-        <f>SUM(K47,I47*(-1))</f>
+      <c r="J47" s="7">
+        <v>1</v>
+      </c>
+      <c r="K47" s="7">
+        <v>3000</v>
+      </c>
+      <c r="L47" s="8">
+        <f t="shared" si="2"/>
         <v>1770</v>
       </c>
     </row>
     <row r="48" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I48" s="8">
+      <c r="I48" s="7">
         <v>1230</v>
       </c>
-      <c r="J48" s="8">
-        <v>1</v>
-      </c>
-      <c r="K48" s="8">
-        <v>3000</v>
-      </c>
-      <c r="L48" s="9">
-        <f>SUM(K48,I48*(-1))</f>
+      <c r="J48" s="7">
+        <v>1</v>
+      </c>
+      <c r="K48" s="7">
+        <v>3000</v>
+      </c>
+      <c r="L48" s="8">
+        <f t="shared" si="2"/>
         <v>1770</v>
       </c>
     </row>
     <row r="49" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I49" s="8">
+      <c r="I49" s="7">
         <v>1230</v>
       </c>
-      <c r="J49" s="8">
-        <v>1</v>
-      </c>
-      <c r="K49" s="8">
-        <v>3000</v>
-      </c>
-      <c r="L49" s="9">
-        <f>SUM(K49,I49*(-1))</f>
+      <c r="J49" s="7">
+        <v>1</v>
+      </c>
+      <c r="K49" s="7">
+        <v>3000</v>
+      </c>
+      <c r="L49" s="8">
+        <f t="shared" si="2"/>
         <v>1770</v>
       </c>
     </row>
     <row r="50" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I50" s="8">
+      <c r="I50" s="7">
         <v>1230</v>
       </c>
-      <c r="J50" s="8">
-        <v>1</v>
-      </c>
-      <c r="K50" s="8">
-        <v>3000</v>
-      </c>
-      <c r="L50" s="9">
-        <f>SUM(K50,I50*(-1))</f>
+      <c r="J50" s="7">
+        <v>1</v>
+      </c>
+      <c r="K50" s="7">
+        <v>3000</v>
+      </c>
+      <c r="L50" s="8">
+        <f t="shared" si="2"/>
         <v>1770</v>
       </c>
     </row>
     <row r="51" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I51" s="8">
+      <c r="I51" s="7">
         <v>1230</v>
       </c>
-      <c r="J51" s="8">
-        <v>1</v>
-      </c>
-      <c r="K51" s="8">
-        <v>3000</v>
-      </c>
-      <c r="L51" s="9">
-        <f>SUM(K51,I51*(-1))</f>
+      <c r="J51" s="7">
+        <v>1</v>
+      </c>
+      <c r="K51" s="7">
+        <v>3000</v>
+      </c>
+      <c r="L51" s="8">
+        <f t="shared" si="2"/>
         <v>1770</v>
       </c>
     </row>
     <row r="52" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I52" s="8">
+      <c r="I52" s="7">
         <v>1230</v>
       </c>
-      <c r="J52" s="8">
+      <c r="J52" s="7">
         <v>0</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K52" s="7">
         <f>SUM(L46)</f>
         <v>1770</v>
       </c>
-      <c r="L52" s="13">
-        <f>SUM(K52,I52*(-1))</f>
+      <c r="L52" s="12">
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
     <row r="53" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I53" s="8">
+      <c r="I53" s="7">
         <v>1230</v>
       </c>
-      <c r="J53" s="8">
+      <c r="J53" s="7">
         <v>0</v>
       </c>
-      <c r="K53" s="8">
-        <f t="shared" ref="K53:K57" si="1">SUM(L47)</f>
+      <c r="K53" s="7">
+        <f t="shared" ref="K53:K57" si="4">SUM(L47)</f>
         <v>1770</v>
       </c>
-      <c r="L53" s="13">
-        <f>SUM(K53,I53*(-1))</f>
+      <c r="L53" s="12">
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
     <row r="54" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I54" s="8">
+      <c r="I54" s="7">
         <v>1230</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J54" s="7">
         <v>0</v>
       </c>
-      <c r="K54" s="8">
-        <f t="shared" si="1"/>
+      <c r="K54" s="7">
+        <f t="shared" si="4"/>
         <v>1770</v>
       </c>
-      <c r="L54" s="13">
-        <f>SUM(K54,I54*(-1))</f>
+      <c r="L54" s="12">
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
     <row r="55" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I55" s="8">
+      <c r="I55" s="7">
         <v>1230</v>
       </c>
-      <c r="J55" s="8">
+      <c r="J55" s="7">
         <v>0</v>
       </c>
-      <c r="K55" s="8">
-        <f t="shared" si="1"/>
+      <c r="K55" s="7">
+        <f t="shared" si="4"/>
         <v>1770</v>
       </c>
-      <c r="L55" s="13">
-        <f>SUM(K55,I55*(-1))</f>
+      <c r="L55" s="12">
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
     <row r="56" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I56" s="8">
+      <c r="I56" s="7">
         <v>1230</v>
       </c>
-      <c r="J56" s="8">
+      <c r="J56" s="7">
         <v>0</v>
       </c>
-      <c r="K56" s="8">
-        <f t="shared" si="1"/>
+      <c r="K56" s="7">
+        <f t="shared" si="4"/>
         <v>1770</v>
       </c>
-      <c r="L56" s="13">
-        <f>SUM(K56,I56*(-1))</f>
+      <c r="L56" s="12">
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
     <row r="57" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I57" s="8">
+      <c r="I57" s="7">
         <v>1230</v>
       </c>
-      <c r="J57" s="8">
+      <c r="J57" s="7">
         <v>0</v>
       </c>
-      <c r="K57" s="8">
-        <f t="shared" si="1"/>
+      <c r="K57" s="7">
+        <f t="shared" si="4"/>
         <v>1770</v>
       </c>
-      <c r="L57" s="13">
-        <f>SUM(K57,I57*(-1))</f>
+      <c r="L57" s="12">
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
     <row r="58" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I58" s="5">
+      <c r="I58" s="4">
         <v>930</v>
       </c>
-      <c r="J58" s="5">
-        <v>1</v>
-      </c>
-      <c r="K58" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L58" s="12">
-        <f>SUM(K58,I58*(-1))</f>
+      <c r="J58" s="4">
+        <v>1</v>
+      </c>
+      <c r="K58" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L58" s="11">
+        <f t="shared" si="2"/>
         <v>1070</v>
       </c>
     </row>
     <row r="59" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I59" s="5">
+      <c r="I59" s="4">
         <v>930</v>
       </c>
-      <c r="J59" s="5">
-        <v>1</v>
-      </c>
-      <c r="K59" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L59" s="7">
-        <f>SUM(K59,I59*(-1))</f>
+      <c r="J59" s="4">
+        <v>1</v>
+      </c>
+      <c r="K59" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L59" s="6">
+        <f t="shared" si="2"/>
         <v>1070</v>
       </c>
     </row>
     <row r="60" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I60" s="5">
+      <c r="I60" s="4">
         <v>920</v>
       </c>
-      <c r="J60" s="5">
-        <v>1</v>
-      </c>
-      <c r="K60" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L60" s="7">
-        <f>SUM(K60,I60*(-1))</f>
+      <c r="J60" s="4">
+        <v>1</v>
+      </c>
+      <c r="K60" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L60" s="6">
+        <f t="shared" si="2"/>
         <v>1080</v>
       </c>
     </row>
     <row r="61" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I61" s="5">
+      <c r="I61" s="4">
         <v>920</v>
       </c>
-      <c r="J61" s="5">
-        <v>1</v>
-      </c>
-      <c r="K61" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L61" s="7">
-        <f>SUM(K61,I61*(-1))</f>
+      <c r="J61" s="4">
+        <v>1</v>
+      </c>
+      <c r="K61" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L61" s="6">
+        <f t="shared" si="2"/>
         <v>1080</v>
       </c>
     </row>
@@ -2605,131 +2605,131 @@
       <c r="J62" s="1">
         <v>1</v>
       </c>
-      <c r="K62" s="5">
-        <v>2000</v>
-      </c>
-      <c r="L62" s="7">
-        <f>SUM(K62,I62*(-1))</f>
+      <c r="K62" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L62" s="6">
+        <f t="shared" si="2"/>
         <v>1410</v>
       </c>
     </row>
     <row r="63" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I63" s="14">
+      <c r="I63" s="13">
         <v>530</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J63" s="13">
         <v>0</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K63" s="13">
         <f>SUM(L52)</f>
         <v>540</v>
       </c>
-      <c r="L63" s="13">
-        <f>SUM(K63,I63*(-1))</f>
+      <c r="L63" s="12">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="64" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I64" s="14">
+      <c r="I64" s="13">
         <v>400</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J64" s="13">
         <v>0</v>
       </c>
-      <c r="K64" s="14">
-        <f t="shared" ref="K64:K68" si="2">SUM(L53)</f>
+      <c r="K64" s="13">
+        <f t="shared" ref="K64:K68" si="5">SUM(L53)</f>
         <v>540</v>
       </c>
-      <c r="L64" s="13">
-        <f>SUM(K64,I64*(-1))</f>
+      <c r="L64" s="12">
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="I65" s="14">
+    <row r="65" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I65" s="13">
         <v>400</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J65" s="13">
         <v>0</v>
       </c>
-      <c r="K65" s="14">
+      <c r="K65" s="13">
+        <f t="shared" si="5"/>
+        <v>540</v>
+      </c>
+      <c r="L65" s="12">
         <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I66" s="13">
+        <v>400</v>
+      </c>
+      <c r="J66" s="13">
+        <v>0</v>
+      </c>
+      <c r="K66" s="13">
+        <f t="shared" si="5"/>
         <v>540</v>
       </c>
-      <c r="L65" s="13">
-        <f>SUM(K65,I65*(-1))</f>
+      <c r="L66" s="12">
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="I66" s="14">
-        <v>400</v>
-      </c>
-      <c r="J66" s="14">
+    <row r="67" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I67" s="13">
+        <v>370</v>
+      </c>
+      <c r="J67" s="13">
         <v>0</v>
       </c>
-      <c r="K66" s="14">
-        <f t="shared" si="2"/>
+      <c r="K67" s="13">
+        <f t="shared" si="5"/>
         <v>540</v>
       </c>
-      <c r="L66" s="13">
-        <f>SUM(K66,I66*(-1))</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="I67" s="14">
+      <c r="L67" s="12">
+        <f t="shared" ref="L67:L98" si="6">SUM(K67,I67*(-1))</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I68" s="13">
         <v>370</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J68" s="13">
         <v>0</v>
       </c>
-      <c r="K67" s="14">
-        <f t="shared" si="2"/>
+      <c r="K68" s="13">
+        <f t="shared" si="5"/>
         <v>540</v>
       </c>
-      <c r="L67" s="13">
-        <f>SUM(K67,I67*(-1))</f>
+      <c r="L68" s="12">
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="I68" s="14">
+    <row r="69" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I69" s="14">
         <v>370</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J69" s="14">
         <v>0</v>
       </c>
-      <c r="K68" s="14">
-        <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-      <c r="L68" s="13">
-        <f>SUM(K68,I68*(-1))</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="I69" s="15">
-        <v>370</v>
-      </c>
-      <c r="J69" s="15">
-        <v>0</v>
-      </c>
-      <c r="K69" s="15">
+      <c r="K69" s="14">
         <f>SUM(L58)</f>
         <v>1070</v>
       </c>
-      <c r="L69" s="12">
-        <f>SUM(K69,I69*(-1))</f>
+      <c r="L69" s="11">
+        <f t="shared" si="6"/>
         <v>700</v>
       </c>
     </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I72">
         <v>2000</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J72" s="5">
         <f>SUM(J3:J37,J58:J62)</f>
         <v>40</v>
       </c>
@@ -2740,12 +2740,15 @@
         <f>PRODUCT(J72,K72)</f>
         <v>3440</v>
       </c>
-    </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N72">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I73">
         <v>3000</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J73" s="5">
         <f>SUM(J38:J51)</f>
         <v>10</v>
       </c>
@@ -2757,23 +2760,23 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:14" x14ac:dyDescent="0.25">
       <c r="L74">
         <f>SUM(L72:L73)</f>
         <v>4690</v>
       </c>
     </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C76" s="3" t="s">
+    <row r="76" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C76" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-    </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+    </row>
+    <row r="79" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I79" s="1">
         <v>1860</v>
       </c>
@@ -2783,12 +2786,12 @@
       <c r="K79">
         <v>2000</v>
       </c>
-      <c r="L79" s="7">
+      <c r="L79" s="6">
         <f>SUM(K79,I79*(-1))</f>
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I80" s="1">
         <v>1320</v>
       </c>
@@ -2798,12 +2801,12 @@
       <c r="K80">
         <v>2000</v>
       </c>
-      <c r="L80" s="7">
-        <f t="shared" ref="L80:L81" si="3">SUM(K80,I80*(-1))</f>
+      <c r="L80" s="6">
+        <f t="shared" ref="L80:L81" si="7">SUM(K80,I80*(-1))</f>
         <v>680</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I81" s="1">
         <v>1960</v>
       </c>
@@ -2813,27 +2816,27 @@
       <c r="K81">
         <v>2000</v>
       </c>
-      <c r="L81" s="7">
-        <f t="shared" si="3"/>
+      <c r="L81" s="6">
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="I82" s="10">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I82" s="9">
         <v>1500</v>
       </c>
-      <c r="J82" s="10">
-        <v>1</v>
-      </c>
-      <c r="K82" s="16">
-        <v>2000</v>
-      </c>
-      <c r="L82" s="11">
-        <f t="shared" ref="L82:L84" si="4">SUM(K82,I82*(-1))</f>
+      <c r="J82" s="9">
+        <v>1</v>
+      </c>
+      <c r="K82" s="15">
+        <v>2000</v>
+      </c>
+      <c r="L82" s="10">
+        <f t="shared" ref="L82:L84" si="8">SUM(K82,I82*(-1))</f>
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I83" s="1">
         <v>1500</v>
       </c>
@@ -2843,12 +2846,12 @@
       <c r="K83">
         <v>2000</v>
       </c>
-      <c r="L83" s="7">
-        <f t="shared" si="4"/>
+      <c r="L83" s="6">
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I84" s="1">
         <v>1500</v>
       </c>
@@ -2858,19 +2861,19 @@
       <c r="K84">
         <v>2000</v>
       </c>
-      <c r="L84" s="7">
-        <f t="shared" si="4"/>
+      <c r="L84" s="6">
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
-      <c r="L85" s="7"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I86" s="1"/>
-      <c r="J86" s="6">
+      <c r="J86" s="5">
         <f>SUM(J79:J82)</f>
         <v>26</v>
       </c>
@@ -2881,18 +2884,21 @@
         <f>PRODUCT(J86,K86)</f>
         <v>2288</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C90" s="3" t="s">
+      <c r="N86">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C90" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I91" s="1">
         <v>1600</v>
       </c>
@@ -2907,21 +2913,21 @@
         <v>324</v>
       </c>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C93" s="3" t="s">
+    <row r="93" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C93" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.25">
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.25">
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1">
@@ -2931,7 +2937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:14" x14ac:dyDescent="0.25">
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1">
@@ -2972,14 +2978,14 @@
       <c r="J100" s="1"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
@@ -3025,14 +3031,14 @@
       <c r="J108" s="1"/>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
@@ -3085,12 +3091,12 @@
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16"/>
     </row>
   </sheetData>
   <sortState ref="B3:E28">
@@ -3113,17 +3119,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3"/>
+      <c r="D2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16"/>
     </row>
     <row r="4" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D4" s="1">
@@ -3261,46 +3267,46 @@
       </c>
     </row>
     <row r="13" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>1230</v>
       </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16">
-        <v>3000</v>
-      </c>
-      <c r="G13" s="16">
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15">
+        <v>3000</v>
+      </c>
+      <c r="G13" s="15">
         <f t="shared" si="0"/>
         <v>1770</v>
       </c>
     </row>
     <row r="14" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>1230</v>
       </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16">
-        <v>3000</v>
-      </c>
-      <c r="G14" s="16">
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15">
+        <v>3000</v>
+      </c>
+      <c r="G14" s="15">
         <f t="shared" si="0"/>
         <v>1770</v>
       </c>
     </row>
     <row r="15" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>1230</v>
       </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="16">
-        <v>3000</v>
-      </c>
-      <c r="G15" s="16">
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="15">
         <f t="shared" si="0"/>
         <v>1770</v>
       </c>
@@ -3354,25 +3360,25 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>930</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>2</v>
       </c>
-      <c r="F19" s="16">
-        <v>2000</v>
-      </c>
-      <c r="G19" s="16">
+      <c r="F19" s="15">
+        <v>2000</v>
+      </c>
+      <c r="G19" s="15">
         <f t="shared" si="0"/>
         <v>1070</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>920</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20">
@@ -3385,10 +3391,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>530</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>1</v>
       </c>
       <c r="F21">
@@ -3401,98 +3407,98 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5">
         <v>29</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>86</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <f>PRODUCT(E23,F23)</f>
         <v>2494</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5">
         <v>3</v>
       </c>
       <c r="F24">
         <v>125</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <f>PRODUCT(E24,F24)</f>
         <v>375</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -3501,19 +3507,19 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="1">
         <v>1860</v>
       </c>
@@ -3521,19 +3527,19 @@
         <v>7</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="1">
         <v>1320</v>
       </c>
@@ -3541,104 +3547,104 @@
         <v>7</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5">
         <f>SUM(E29:E32)</f>
         <v>14</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>88</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <f>PRODUCT(E33,F33)</f>
         <v>1232</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D37" s="1">
@@ -3664,14 +3670,14 @@
       <c r="I38" s="1"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E43" s="1">

--- a/Материалы.xlsx
+++ b/Материалы.xlsx
@@ -4,20 +4,42 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_2020_01_27" localSheetId="4">Лист5!$B$4:$H$42</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="2020-01-27" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="E:\Ingenering\3d\Sauna\img\2020-01-27.csv" decimal="," thousands=" " space="1" comma="1" consecutive="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="113">
   <si>
     <t>Каркас</t>
   </si>
@@ -71,6 +93,291 @@
   </si>
   <si>
     <t>Профлист</t>
+  </si>
+  <si>
+    <t>Definition Name</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>Entity Name</t>
+  </si>
+  <si>
+    <t>LenX</t>
+  </si>
+  <si>
+    <t>LenY</t>
+  </si>
+  <si>
+    <t>LenZ</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Брусок</t>
+  </si>
+  <si>
+    <t>Каркас (8), Потолок (4)</t>
+  </si>
+  <si>
+    <t>ВерхДляТрубы (2), ВерхЛево (2), ВерхПраво (2), ВерхЦентр (2), НизЛево (2), НизПраво (2)</t>
+  </si>
+  <si>
+    <t>940 mm</t>
+  </si>
+  <si>
+    <t>40 mm</t>
+  </si>
+  <si>
+    <t>БрусокВертикальныйПодножка</t>
+  </si>
+  <si>
+    <t>404 mm</t>
+  </si>
+  <si>
+    <t>БрусокВертикльный</t>
+  </si>
+  <si>
+    <t>1840 mm</t>
+  </si>
+  <si>
+    <t>БрусокВертикльныйСеденье</t>
+  </si>
+  <si>
+    <t>807 mm</t>
+  </si>
+  <si>
+    <t>БрусокВерх</t>
+  </si>
+  <si>
+    <t>Каркас (2), Потолок</t>
+  </si>
+  <si>
+    <t>ВерхТыл, ВерхФронт, ВерхЦентр</t>
+  </si>
+  <si>
+    <t>1956 mm</t>
+  </si>
+  <si>
+    <t>БрусокВходНиз</t>
+  </si>
+  <si>
+    <t>1876 mm</t>
+  </si>
+  <si>
+    <t>БрусокКрыша</t>
+  </si>
+  <si>
+    <t>1170 mm</t>
+  </si>
+  <si>
+    <t>444 mm</t>
+  </si>
+  <si>
+    <t>БрусокКрышаВертикльный</t>
+  </si>
+  <si>
+    <t>300 mm</t>
+  </si>
+  <si>
+    <t>БрусокКрышаЦентр</t>
+  </si>
+  <si>
+    <t>2000 mm</t>
+  </si>
+  <si>
+    <t>БрусокПол</t>
+  </si>
+  <si>
+    <t>Пол</t>
+  </si>
+  <si>
+    <t>1920 mm</t>
+  </si>
+  <si>
+    <t>БрусокПолКороткий</t>
+  </si>
+  <si>
+    <t>БрусокПолПрихожаяОпораЛавка</t>
+  </si>
+  <si>
+    <t>593 mm</t>
+  </si>
+  <si>
+    <t>БрусокПолСоединительный</t>
+  </si>
+  <si>
+    <t>545 mm</t>
+  </si>
+  <si>
+    <t>БрусокПрихожаяНиз</t>
+  </si>
+  <si>
+    <t>БрусокПрихожка</t>
+  </si>
+  <si>
+    <t>Каркас (4), Потолок, Седение</t>
+  </si>
+  <si>
+    <t>БрусокПрихожка, ВерхЦентр, ЛевоВерх, ЛевоНиз, ПравоВерх, ПравоНиз</t>
+  </si>
+  <si>
+    <t>1520 mm</t>
+  </si>
+  <si>
+    <t>БрусокПрихожкаПол</t>
+  </si>
+  <si>
+    <t>БрусокСедениеПрихожка</t>
+  </si>
+  <si>
+    <t>351 mm</t>
+  </si>
+  <si>
+    <t>БрусокСеденье</t>
+  </si>
+  <si>
+    <t>350 mm</t>
+  </si>
+  <si>
+    <t>БрусокСеденьеПриВходе</t>
+  </si>
+  <si>
+    <t>389 mm</t>
+  </si>
+  <si>
+    <t>БрусокТылНиз</t>
+  </si>
+  <si>
+    <t>918 mm</t>
+  </si>
+  <si>
+    <t>БурокВертикльныйВход</t>
+  </si>
+  <si>
+    <t>1800 mm</t>
+  </si>
+  <si>
+    <t>Вагонка</t>
+  </si>
+  <si>
+    <t>Наличник</t>
+  </si>
+  <si>
+    <t>10 mm</t>
+  </si>
+  <si>
+    <t>90 mm</t>
+  </si>
+  <si>
+    <t>ВнешняРейкаВертикальная</t>
+  </si>
+  <si>
+    <t>ВнешнииСтенки</t>
+  </si>
+  <si>
+    <t>22 mm</t>
+  </si>
+  <si>
+    <t>Горизнт50х50х200#8</t>
+  </si>
+  <si>
+    <t>Горизонт50х50х950#2</t>
+  </si>
+  <si>
+    <t>1600 mm</t>
+  </si>
+  <si>
+    <t>ДоскаПолПарилка1</t>
+  </si>
+  <si>
+    <t>1860 mm</t>
+  </si>
+  <si>
+    <t>20 mm</t>
+  </si>
+  <si>
+    <t>ДоскаПолПарилка2</t>
+  </si>
+  <si>
+    <t>1321 mm</t>
+  </si>
+  <si>
+    <t>ДоскаПолПрихожая</t>
+  </si>
+  <si>
+    <t>ДоскаПолПрихожая1</t>
+  </si>
+  <si>
+    <t>1538 mm</t>
+  </si>
+  <si>
+    <t>Печь</t>
+  </si>
+  <si>
+    <t>Кровля</t>
+  </si>
+  <si>
+    <t>3682 mm</t>
+  </si>
+  <si>
+    <t>1196 mm</t>
+  </si>
+  <si>
+    <t>447 mm</t>
+  </si>
+  <si>
+    <t>Подножка</t>
+  </si>
+  <si>
+    <t>Различие</t>
+  </si>
+  <si>
+    <t>312 mm</t>
+  </si>
+  <si>
+    <t>320 mm</t>
+  </si>
+  <si>
+    <t>5 mm</t>
+  </si>
+  <si>
+    <t>Рейка входа#1</t>
+  </si>
+  <si>
+    <t>Двери</t>
+  </si>
+  <si>
+    <t>50 mm</t>
+  </si>
+  <si>
+    <t>1580 mm</t>
+  </si>
+  <si>
+    <t>РейкаВнешняяПрихожая</t>
+  </si>
+  <si>
+    <t>РейкаВнешняяПрихожаяФронт</t>
+  </si>
+  <si>
+    <t>ВерхЛево, ВерхПраво, ВерхТыл, ВерхФронт, ЛевоНиз, ПраваяНиз, РейкаВнешняяПрихожаяФронт (2), ТылНиз, ФронтНиз</t>
+  </si>
+  <si>
+    <t>РейкаВход</t>
+  </si>
+  <si>
+    <t>Лево, Правая</t>
+  </si>
+  <si>
+    <t>150 mm</t>
+  </si>
+  <si>
+    <t>СедениеПрихожка</t>
+  </si>
+  <si>
+    <t>Наличник (3), Седение (4)</t>
   </si>
 </sst>
 </file>
@@ -203,6 +510,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2020-01-27" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1320,6 +1631,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:D67"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A11:E11"/>
@@ -1332,11 +1648,6 @@
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:D67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1346,7 +1657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -2689,7 +3000,7 @@
         <v>540</v>
       </c>
       <c r="L67" s="12">
-        <f t="shared" ref="L67:L98" si="6">SUM(K67,I67*(-1))</f>
+        <f t="shared" ref="L67:L69" si="6">SUM(K67,I67*(-1))</f>
         <v>170</v>
       </c>
     </row>
@@ -3714,4 +4025,924 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.5703125" customWidth="1"/>
+    <col min="5" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Материалы.xlsx
+++ b/Материалы.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_2020_01_27" localSheetId="4">Лист5!$B$4:$H$42</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="76">
   <si>
     <t>Каркас</t>
   </si>
@@ -125,30 +125,15 @@
     <t>ВерхДляТрубы (2), ВерхЛево (2), ВерхПраво (2), ВерхЦентр (2), НизЛево (2), НизПраво (2)</t>
   </si>
   <si>
-    <t>940 mm</t>
-  </si>
-  <si>
-    <t>40 mm</t>
-  </si>
-  <si>
     <t>БрусокВертикальныйПодножка</t>
   </si>
   <si>
-    <t>404 mm</t>
-  </si>
-  <si>
     <t>БрусокВертикльный</t>
   </si>
   <si>
-    <t>1840 mm</t>
-  </si>
-  <si>
     <t>БрусокВертикльныйСеденье</t>
   </si>
   <si>
-    <t>807 mm</t>
-  </si>
-  <si>
     <t>БрусокВерх</t>
   </si>
   <si>
@@ -158,60 +143,33 @@
     <t>ВерхТыл, ВерхФронт, ВерхЦентр</t>
   </si>
   <si>
-    <t>1956 mm</t>
-  </si>
-  <si>
     <t>БрусокВходНиз</t>
   </si>
   <si>
-    <t>1876 mm</t>
-  </si>
-  <si>
     <t>БрусокКрыша</t>
   </si>
   <si>
-    <t>1170 mm</t>
-  </si>
-  <si>
-    <t>444 mm</t>
-  </si>
-  <si>
     <t>БрусокКрышаВертикльный</t>
   </si>
   <si>
-    <t>300 mm</t>
-  </si>
-  <si>
     <t>БрусокКрышаЦентр</t>
   </si>
   <si>
-    <t>2000 mm</t>
-  </si>
-  <si>
     <t>БрусокПол</t>
   </si>
   <si>
     <t>Пол</t>
   </si>
   <si>
-    <t>1920 mm</t>
-  </si>
-  <si>
     <t>БрусокПолКороткий</t>
   </si>
   <si>
     <t>БрусокПолПрихожаяОпораЛавка</t>
   </si>
   <si>
-    <t>593 mm</t>
-  </si>
-  <si>
     <t>БрусокПолСоединительный</t>
   </si>
   <si>
-    <t>545 mm</t>
-  </si>
-  <si>
     <t>БрусокПрихожаяНиз</t>
   </si>
   <si>
@@ -224,138 +182,72 @@
     <t>БрусокПрихожка, ВерхЦентр, ЛевоВерх, ЛевоНиз, ПравоВерх, ПравоНиз</t>
   </si>
   <si>
-    <t>1520 mm</t>
-  </si>
-  <si>
     <t>БрусокПрихожкаПол</t>
   </si>
   <si>
     <t>БрусокСедениеПрихожка</t>
   </si>
   <si>
-    <t>351 mm</t>
-  </si>
-  <si>
     <t>БрусокСеденье</t>
   </si>
   <si>
-    <t>350 mm</t>
-  </si>
-  <si>
     <t>БрусокСеденьеПриВходе</t>
   </si>
   <si>
-    <t>389 mm</t>
-  </si>
-  <si>
     <t>БрусокТылНиз</t>
   </si>
   <si>
-    <t>918 mm</t>
-  </si>
-  <si>
     <t>БурокВертикльныйВход</t>
   </si>
   <si>
-    <t>1800 mm</t>
-  </si>
-  <si>
     <t>Вагонка</t>
   </si>
   <si>
     <t>Наличник</t>
   </si>
   <si>
-    <t>10 mm</t>
-  </si>
-  <si>
-    <t>90 mm</t>
-  </si>
-  <si>
     <t>ВнешняРейкаВертикальная</t>
   </si>
   <si>
     <t>ВнешнииСтенки</t>
   </si>
   <si>
-    <t>22 mm</t>
-  </si>
-  <si>
     <t>Горизнт50х50х200#8</t>
   </si>
   <si>
     <t>Горизонт50х50х950#2</t>
   </si>
   <si>
-    <t>1600 mm</t>
-  </si>
-  <si>
     <t>ДоскаПолПарилка1</t>
   </si>
   <si>
-    <t>1860 mm</t>
-  </si>
-  <si>
-    <t>20 mm</t>
-  </si>
-  <si>
     <t>ДоскаПолПарилка2</t>
   </si>
   <si>
-    <t>1321 mm</t>
-  </si>
-  <si>
     <t>ДоскаПолПрихожая</t>
   </si>
   <si>
     <t>ДоскаПолПрихожая1</t>
   </si>
   <si>
-    <t>1538 mm</t>
-  </si>
-  <si>
     <t>Печь</t>
   </si>
   <si>
     <t>Кровля</t>
   </si>
   <si>
-    <t>3682 mm</t>
-  </si>
-  <si>
-    <t>1196 mm</t>
-  </si>
-  <si>
-    <t>447 mm</t>
-  </si>
-  <si>
     <t>Подножка</t>
   </si>
   <si>
     <t>Различие</t>
   </si>
   <si>
-    <t>312 mm</t>
-  </si>
-  <si>
-    <t>320 mm</t>
-  </si>
-  <si>
-    <t>5 mm</t>
-  </si>
-  <si>
     <t>Рейка входа#1</t>
   </si>
   <si>
     <t>Двери</t>
   </si>
   <si>
-    <t>50 mm</t>
-  </si>
-  <si>
-    <t>1580 mm</t>
-  </si>
-  <si>
     <t>РейкаВнешняяПрихожая</t>
   </si>
   <si>
@@ -369,9 +261,6 @@
   </si>
   <si>
     <t>Лево, Правая</t>
-  </si>
-  <si>
-    <t>150 mm</t>
   </si>
   <si>
     <t>СедениеПрихожка</t>
@@ -447,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,6 +381,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -559,7 +451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,7 +486,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -803,6 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -823,15 +716,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -926,25 +819,25 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="A12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -998,25 +891,25 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="A22" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1070,14 +963,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1116,66 +1009,66 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="A35" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
+      <c r="A47" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -1214,25 +1107,25 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
@@ -1253,14 +1146,14 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -1306,6 +1199,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -1321,13 +1215,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1379,21 +1273,21 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="A12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
@@ -1404,21 +1298,21 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="A22" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
@@ -1437,12 +1331,12 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
@@ -1453,21 +1347,21 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="A35" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
@@ -1486,12 +1380,12 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
@@ -1502,12 +1396,12 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
@@ -1518,21 +1412,21 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
+      <c r="A47" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
@@ -1551,21 +1445,21 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
@@ -1573,12 +1467,12 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
@@ -1589,21 +1483,21 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
@@ -1631,11 +1525,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:D67"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A11:E11"/>
@@ -1648,6 +1537,11 @@
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:D67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1655,6 +1549,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист3"/>
   <dimension ref="B1:N130"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
@@ -1667,14 +1562,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
@@ -3078,14 +2973,14 @@
       </c>
     </row>
     <row r="76" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
     </row>
     <row r="79" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I79" s="1">
@@ -3200,14 +3095,14 @@
       </c>
     </row>
     <row r="90" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
     </row>
     <row r="91" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I91" s="1">
@@ -3225,14 +3120,14 @@
       </c>
     </row>
     <row r="93" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
     </row>
     <row r="94" spans="3:14" x14ac:dyDescent="0.25">
       <c r="G94" s="1"/>
@@ -3289,14 +3184,14 @@
       <c r="J100" s="1"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
@@ -3342,14 +3237,14 @@
       <c r="J108" s="1"/>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
@@ -3402,12 +3297,12 @@
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B130" s="16"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="16"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
     </row>
   </sheetData>
   <sortState ref="B3:E28">
@@ -3428,6 +3323,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист4"/>
   <dimension ref="A2:N47"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -3437,10 +3333,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="16"/>
+      <c r="D2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17"/>
     </row>
     <row r="4" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D4" s="1">
@@ -3794,14 +3690,14 @@
       <c r="N26" s="5"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -3940,14 +3836,14 @@
       <c r="N34" s="5"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="M35" s="5"/>
@@ -3981,14 +3877,14 @@
       <c r="I38" s="1"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E43" s="1">
@@ -4029,10 +3925,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист5"/>
   <dimension ref="B4:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4078,14 +3975,14 @@
       <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
+      <c r="E5" s="16">
+        <v>940</v>
+      </c>
+      <c r="F5" s="16">
+        <v>40</v>
+      </c>
+      <c r="G5" s="16">
+        <v>40</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -4093,22 +3990,22 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E6" s="16">
+        <v>40</v>
+      </c>
+      <c r="F6" s="16">
+        <v>40</v>
+      </c>
+      <c r="G6" s="16">
+        <v>404</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -4116,22 +4013,22 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
+      <c r="E7" s="16">
+        <v>40</v>
+      </c>
+      <c r="F7" s="16">
+        <v>40</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1840</v>
       </c>
       <c r="H7">
         <v>11</v>
@@ -4139,22 +4036,22 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="E8" s="16">
+        <v>40</v>
+      </c>
+      <c r="F8" s="16">
+        <v>40</v>
+      </c>
+      <c r="G8" s="16">
+        <v>807</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -4162,22 +4059,22 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1956</v>
+      </c>
+      <c r="F9" s="16">
+        <v>40</v>
+      </c>
+      <c r="G9" s="16">
+        <v>40</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -4185,22 +4082,22 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1876</v>
+      </c>
+      <c r="F10" s="16">
+        <v>40</v>
+      </c>
+      <c r="G10" s="16">
+        <v>40</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -4208,22 +4105,22 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="E11" s="16">
+        <v>40</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1170</v>
+      </c>
+      <c r="G11" s="16">
+        <v>444</v>
       </c>
       <c r="H11">
         <v>12</v>
@@ -4231,22 +4128,22 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="E12" s="16">
+        <v>40</v>
+      </c>
+      <c r="F12" s="16">
+        <v>40</v>
+      </c>
+      <c r="G12" s="16">
+        <v>300</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -4254,22 +4151,22 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="E13" s="16">
+        <v>2000</v>
+      </c>
+      <c r="F13" s="16">
+        <v>40</v>
+      </c>
+      <c r="G13" s="16">
+        <v>40</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -4277,22 +4174,22 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1920</v>
+      </c>
+      <c r="F14" s="16">
+        <v>40</v>
+      </c>
+      <c r="G14" s="16">
+        <v>40</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -4300,22 +4197,22 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="E15" s="16">
+        <v>940</v>
+      </c>
+      <c r="F15" s="16">
+        <v>40</v>
+      </c>
+      <c r="G15" s="16">
+        <v>40</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -4323,22 +4220,22 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="E16" s="16">
+        <v>593</v>
+      </c>
+      <c r="F16" s="16">
+        <v>40</v>
+      </c>
+      <c r="G16" s="16">
+        <v>40</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -4346,22 +4243,22 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="E17" s="16">
+        <v>545</v>
+      </c>
+      <c r="F17" s="16">
+        <v>40</v>
+      </c>
+      <c r="G17" s="16">
+        <v>40</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -4369,22 +4266,22 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1876</v>
+      </c>
+      <c r="F18" s="16">
+        <v>40</v>
+      </c>
+      <c r="G18" s="16">
+        <v>40</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -4392,22 +4289,22 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
+        <v>46</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1520</v>
+      </c>
+      <c r="F19" s="16">
+        <v>40</v>
+      </c>
+      <c r="G19" s="16">
+        <v>40</v>
       </c>
       <c r="H19">
         <v>6</v>
@@ -4415,22 +4312,22 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1520</v>
+      </c>
+      <c r="F20" s="16">
+        <v>40</v>
+      </c>
+      <c r="G20" s="16">
+        <v>40</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -4438,22 +4335,22 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="E21" s="16">
+        <v>40</v>
+      </c>
+      <c r="F21" s="16">
+        <v>351</v>
+      </c>
+      <c r="G21" s="16">
+        <v>40</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -4461,22 +4358,22 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="E22" s="16">
+        <v>40</v>
+      </c>
+      <c r="F22" s="16">
+        <v>350</v>
+      </c>
+      <c r="G22" s="16">
+        <v>40</v>
       </c>
       <c r="H22">
         <v>5</v>
@@ -4484,22 +4381,22 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="E23" s="16">
+        <v>40</v>
+      </c>
+      <c r="F23" s="16">
+        <v>389</v>
+      </c>
+      <c r="G23" s="16">
+        <v>40</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -4507,22 +4404,22 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
+        <v>51</v>
+      </c>
+      <c r="E24" s="16">
+        <v>918</v>
+      </c>
+      <c r="F24" s="16">
+        <v>40</v>
+      </c>
+      <c r="G24" s="16">
+        <v>40</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -4530,22 +4427,22 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" t="s">
-        <v>72</v>
+        <v>52</v>
+      </c>
+      <c r="E25" s="16">
+        <v>40</v>
+      </c>
+      <c r="F25" s="16">
+        <v>40</v>
+      </c>
+      <c r="G25" s="16">
+        <v>1800</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -4553,22 +4450,22 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="E26" s="16">
+        <v>10</v>
+      </c>
+      <c r="F26" s="16">
+        <v>90</v>
+      </c>
+      <c r="G26" s="16">
+        <v>2000</v>
       </c>
       <c r="H26">
         <v>39</v>
@@ -4576,22 +4473,22 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="E27" s="16">
+        <v>22</v>
+      </c>
+      <c r="F27" s="16">
+        <v>40</v>
+      </c>
+      <c r="G27" s="16">
+        <v>1800</v>
       </c>
       <c r="H27">
         <v>19</v>
@@ -4599,22 +4496,22 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="E28" s="16">
+        <v>1956</v>
+      </c>
+      <c r="F28" s="16">
+        <v>40</v>
+      </c>
+      <c r="G28" s="16">
+        <v>40</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -4622,22 +4519,22 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" t="s">
-        <v>29</v>
+        <v>58</v>
+      </c>
+      <c r="E29" s="16">
+        <v>1600</v>
+      </c>
+      <c r="F29" s="16">
+        <v>40</v>
+      </c>
+      <c r="G29" s="16">
+        <v>40</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -4645,22 +4542,22 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" t="s">
-        <v>85</v>
+        <v>59</v>
+      </c>
+      <c r="E30" s="16">
+        <v>1860</v>
+      </c>
+      <c r="F30" s="16">
+        <v>90</v>
+      </c>
+      <c r="G30" s="16">
+        <v>20</v>
       </c>
       <c r="H30">
         <v>7</v>
@@ -4668,22 +4565,22 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" t="s">
-        <v>85</v>
+        <v>60</v>
+      </c>
+      <c r="E31" s="16">
+        <v>1321</v>
+      </c>
+      <c r="F31" s="16">
+        <v>90</v>
+      </c>
+      <c r="G31" s="16">
+        <v>20</v>
       </c>
       <c r="H31">
         <v>7</v>
@@ -4691,22 +4588,22 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" t="s">
-        <v>85</v>
+        <v>61</v>
+      </c>
+      <c r="E32" s="16">
+        <v>1956</v>
+      </c>
+      <c r="F32" s="16">
+        <v>90</v>
+      </c>
+      <c r="G32" s="16">
+        <v>20</v>
       </c>
       <c r="H32">
         <v>10</v>
@@ -4714,22 +4611,22 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="16">
+        <v>1538</v>
+      </c>
+      <c r="F33" s="16">
         <v>90</v>
       </c>
-      <c r="F33" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" t="s">
-        <v>85</v>
+      <c r="G33" s="16">
+        <v>20</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -4737,22 +4634,22 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" t="s">
-        <v>95</v>
+        <v>64</v>
+      </c>
+      <c r="E34" s="16">
+        <v>3682</v>
+      </c>
+      <c r="F34" s="16">
+        <v>1196</v>
+      </c>
+      <c r="G34" s="16">
+        <v>447</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -4760,22 +4657,22 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" t="s">
-        <v>85</v>
+        <v>65</v>
+      </c>
+      <c r="E35" s="16">
+        <v>2000</v>
+      </c>
+      <c r="F35" s="16">
+        <v>90</v>
+      </c>
+      <c r="G35" s="16">
+        <v>20</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -4783,22 +4680,22 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G36" t="s">
-        <v>100</v>
+        <v>66</v>
+      </c>
+      <c r="E36" s="16">
+        <v>312</v>
+      </c>
+      <c r="F36" s="16">
+        <v>320</v>
+      </c>
+      <c r="G36" s="16">
+        <v>5</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -4806,22 +4703,22 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" t="s">
-        <v>103</v>
-      </c>
-      <c r="G37" t="s">
-        <v>104</v>
+        <v>67</v>
+      </c>
+      <c r="E37" s="16">
+        <v>22</v>
+      </c>
+      <c r="F37" s="16">
+        <v>50</v>
+      </c>
+      <c r="G37" s="16">
+        <v>1580</v>
       </c>
       <c r="H37">
         <v>4</v>
@@ -4829,22 +4726,22 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" t="s">
-        <v>82</v>
-      </c>
-      <c r="G38" t="s">
-        <v>29</v>
+        <v>69</v>
+      </c>
+      <c r="E38" s="16">
+        <v>22</v>
+      </c>
+      <c r="F38" s="16">
+        <v>1600</v>
+      </c>
+      <c r="G38" s="16">
+        <v>40</v>
       </c>
       <c r="H38">
         <v>4</v>
@@ -4852,22 +4749,22 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
+        <v>71</v>
+      </c>
+      <c r="E39" s="16">
+        <v>22</v>
+      </c>
+      <c r="F39" s="16">
+        <v>2000</v>
+      </c>
+      <c r="G39" s="16">
+        <v>40</v>
       </c>
       <c r="H39">
         <v>10</v>
@@ -4875,22 +4772,22 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="E40" s="16">
+        <v>22</v>
+      </c>
+      <c r="F40" s="16">
+        <v>40</v>
+      </c>
+      <c r="G40" s="16">
+        <v>1800</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4906,14 +4803,14 @@
       <c r="D41" t="s">
         <v>8</v>
       </c>
-      <c r="E41" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" t="s">
-        <v>110</v>
-      </c>
-      <c r="G41" t="s">
-        <v>85</v>
+      <c r="E41" s="16">
+        <v>2000</v>
+      </c>
+      <c r="F41" s="16">
+        <v>150</v>
+      </c>
+      <c r="G41" s="16">
+        <v>20</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4921,22 +4818,22 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" t="s">
-        <v>82</v>
-      </c>
-      <c r="F42" t="s">
-        <v>110</v>
-      </c>
-      <c r="G42" t="s">
-        <v>85</v>
+        <v>74</v>
+      </c>
+      <c r="E42" s="16">
+        <v>1600</v>
+      </c>
+      <c r="F42" s="16">
+        <v>150</v>
+      </c>
+      <c r="G42" s="16">
+        <v>20</v>
       </c>
       <c r="H42">
         <v>7</v>
